--- a/data/trans_orig/MEDIO_AMBIENTE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del medio ambiente en Andalucia</t>
+          <t>Calidad del medio ambiente en Andalucia (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MEDIO_AMBIENTE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Estudios-trans_orig.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>719</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7679</t>
+          <t>7266</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>557</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5771</t>
+          <t>5628</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>3282</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11674</t>
+          <t>11278</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19237</t>
+          <t>19473</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37530</t>
+          <t>37859</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38855</t>
+          <t>39279</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60626</t>
+          <t>60451</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>63636</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>91802</t>
+          <t>91621</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,72%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>147152</t>
+          <t>146100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>172989</t>
+          <t>171705</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>282564</t>
+          <t>280883</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>310827</t>
+          <t>309007</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>438125</t>
+          <t>434866</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>476428</t>
+          <t>475074</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>76,55%</t>
+          <t>76,33%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25169</t>
+          <t>26268</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46061</t>
+          <t>46328</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35153</t>
+          <t>35702</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>52897</t>
+          <t>53683</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>66526</t>
+          <t>66991</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>94296</t>
+          <t>94608</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6056</t>
+          <t>6039</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>407</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6462</t>
+          <t>7161</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2057</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13840</t>
+          <t>15183</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7078</t>
+          <t>6926</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22618</t>
+          <t>23123</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>11589</t>
+          <t>12333</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>30034</t>
+          <t>32233</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>74058</t>
+          <t>68202</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>161705</t>
+          <t>161837</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,49 +1661,49 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>124247</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>72225</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>158891</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>11,48%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>124247</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>75894</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>160977</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>277</t>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>179049</t>
+          <t>174937</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>306540</t>
+          <t>305616</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1041120</t>
+          <t>1043546</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1241678</t>
+          <t>1246368</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1040541</t>
+          <t>1051726</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1211450</t>
+          <t>1219776</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2114849</t>
+          <t>2114335</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2382532</t>
+          <t>2388030</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>85,49%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90237</t>
+          <t>90864</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>208416</t>
+          <t>206540</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>89736</t>
+          <t>79744</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>175944</t>
+          <t>168013</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>209860</t>
+          <t>209093</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>358839</t>
+          <t>358946</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>6794</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>727</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>6102</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2152,47 +2152,47 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3676</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>9173</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>0,14%</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>3676</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>10001</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4661</t>
+          <t>4804</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20040</t>
+          <t>18781</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4954</t>
+          <t>4820</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16907</t>
+          <t>16827</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>11763</t>
+          <t>11315</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>30029</t>
+          <t>29402</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30733</t>
+          <t>30430</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>58691</t>
+          <t>58501</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>42454</t>
+          <t>44505</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>67190</t>
+          <t>67720</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>80303</t>
+          <t>78642</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>116006</t>
+          <t>115849</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,87%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>306355</t>
+          <t>306450</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>346499</t>
+          <t>348203</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,84%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>300764</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>337320</t>
+          <t>333700</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>68,46%</t>
+          <t>68,11%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>616748</t>
+          <t>617484</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>671760</t>
+          <t>670830</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>68,53%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>74,54%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>61788</t>
+          <t>61778</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>94298</t>
+          <t>95931</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>45650</t>
+          <t>46090</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>70702</t>
+          <t>69531</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>115999</t>
+          <t>113758</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>160219</t>
+          <t>158335</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,59%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9837</t>
+          <t>11459</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9221</t>
+          <t>9084</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4283</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>15676</t>
+          <t>15925</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>10325</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29605</t>
+          <t>29134</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>18547</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>39791</t>
+          <t>37531</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>32135</t>
+          <t>32306</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>60710</t>
+          <t>62012</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>130971</t>
+          <t>131781</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>238550</t>
+          <t>235681</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>163350</t>
+          <t>167205</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>265312</t>
+          <t>262759</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>330829</t>
+          <t>331478</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>483185</t>
+          <t>481074</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1519078</t>
+          <t>1519128</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1751936</t>
+          <t>1758346</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>1658481</t>
+          <t>1660076</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1875140</t>
+          <t>1856918</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>3207140</t>
+          <t>3211721</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>3543362</t>
+          <t>3525147</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>81,68%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>187319</t>
+          <t>188073</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>325994</t>
+          <t>326039</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>167244</t>
+          <t>173355</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>272970</t>
+          <t>271346</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>400319</t>
+          <t>401135</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>586016</t>
+          <t>578583</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,41%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MEDIO_AMBIENTE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Estudios-trans_orig.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>5386</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,22 +803,22 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>819</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7266</t>
+          <t>7818</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>561</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5628</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>8665</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11278</t>
+          <t>11893</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27314</t>
+          <t>28606</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19473</t>
+          <t>20310</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37859</t>
+          <t>39274</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48973</t>
+          <t>54443</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39279</t>
+          <t>44457</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60451</t>
+          <t>67715</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>76287</t>
+          <t>83050</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>63636</t>
+          <t>69363</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>91621</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,6%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>160156</t>
+          <t>181281</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>146100</t>
+          <t>167136</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>171705</t>
+          <t>194425</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>71,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>296794</t>
+          <t>322200</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>280883</t>
+          <t>305743</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>309007</t>
+          <t>335754</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>456951</t>
+          <t>503481</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>434866</t>
+          <t>479751</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>475074</t>
+          <t>522431</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>76,24%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35588</t>
+          <t>40084</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26268</t>
+          <t>29706</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46328</t>
+          <t>52156</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1220,32 +1220,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44136</t>
+          <t>48760</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35702</t>
+          <t>39486</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>53683</t>
+          <t>59569</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1255,32 +1255,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>79724</t>
+          <t>88844</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>66991</t>
+          <t>74798</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>94608</t>
+          <t>106075</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,48%</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>226848</t>
+          <t>253907</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>226848</t>
+          <t>253907</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>226848</t>
+          <t>253907</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>395547</t>
+          <t>431297</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>395547</t>
+          <t>431297</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>395547</t>
+          <t>431297</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>622396</t>
+          <t>685204</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>622396</t>
+          <t>685204</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>622396</t>
+          <t>685204</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6039</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4531</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>434</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7161</t>
+          <t>6919</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>6182</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>2496</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15183</t>
+          <t>14656</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13845</t>
+          <t>14834</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6926</t>
+          <t>9344</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23123</t>
+          <t>23801</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>19864</t>
+          <t>21016</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>12333</t>
+          <t>14013</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>32233</t>
+          <t>32195</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>123535</t>
+          <t>133432</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68202</t>
+          <t>109229</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>161837</t>
+          <t>162897</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>124247</t>
+          <t>138735</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>72225</t>
+          <t>118401</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>158891</t>
+          <t>161276</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>247781</t>
+          <t>272167</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>174937</t>
+          <t>238882</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>305616</t>
+          <t>305813</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -1754,32 +1754,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1117755</t>
+          <t>968176</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1043546</t>
+          <t>931357</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1246368</t>
+          <t>1005116</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,08%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1789,32 +1789,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1112562</t>
+          <t>966073</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1051726</t>
+          <t>935817</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1219776</t>
+          <t>993519</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1824,32 +1824,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2230317</t>
+          <t>1934250</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2114335</t>
+          <t>1887359</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2388030</t>
+          <t>1982760</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>75,67%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>73,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>77,57%</t>
         </is>
       </c>
     </row>
@@ -1867,32 +1867,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>160466</t>
+          <t>178244</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90864</t>
+          <t>150500</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>206540</t>
+          <t>213264</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1902,32 +1902,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>132941</t>
+          <t>148322</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>79744</t>
+          <t>127685</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>168013</t>
+          <t>173505</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>293407</t>
+          <t>326567</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>209093</t>
+          <t>290272</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>358946</t>
+          <t>365347</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1408761</t>
+          <t>1287077</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1408761</t>
+          <t>1287077</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1408761</t>
+          <t>1287077</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1384661</t>
+          <t>1269098</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1384661</t>
+          <t>1269098</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1384661</t>
+          <t>1269098</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>2793422</t>
+          <t>2556176</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>2793422</t>
+          <t>2556176</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>2793422</t>
+          <t>2556176</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6794</t>
+          <t>6948</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>2389</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2142,22 +2142,22 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6102</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>9319</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9639</t>
+          <t>10721</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4804</t>
+          <t>5421</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18781</t>
+          <t>20766</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16827</t>
+          <t>17696</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>18748</t>
+          <t>20544</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>11315</t>
+          <t>12804</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>29402</t>
+          <t>32370</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2323,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42736</t>
+          <t>47373</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30430</t>
+          <t>34395</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>58501</t>
+          <t>64493</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>53963</t>
+          <t>61420</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>44505</t>
+          <t>50326</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>67720</t>
+          <t>76270</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2393,32 +2393,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>96700</t>
+          <t>108792</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>78642</t>
+          <t>90302</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>115849</t>
+          <t>128790</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -2436,32 +2436,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>326771</t>
+          <t>360167</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>306450</t>
+          <t>337397</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>348203</t>
+          <t>382678</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>70,84%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,86%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>319115</t>
+          <t>353919</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>300764</t>
+          <t>333911</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>333700</t>
+          <t>370127</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>68,11%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>74,93%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2506,32 +2506,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>645887</t>
+          <t>714086</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>617484</t>
+          <t>684238</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>670830</t>
+          <t>742206</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>68,26%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>74,04%</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>77864</t>
+          <t>88809</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>61778</t>
+          <t>71819</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>95931</t>
+          <t>109545</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2584,32 +2584,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>57043</t>
+          <t>66431</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>46090</t>
+          <t>54182</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>69531</t>
+          <t>81103</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2619,32 +2619,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>134907</t>
+          <t>155241</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>113758</t>
+          <t>132321</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>158335</t>
+          <t>181307</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>18,09%</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>458344</t>
+          <t>508443</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>458344</t>
+          <t>508443</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>458344</t>
+          <t>508443</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>441572</t>
+          <t>493981</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>441572</t>
+          <t>493981</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>441572</t>
+          <t>493981</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>899917</t>
+          <t>1002424</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>899917</t>
+          <t>1002424</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>899917</t>
+          <t>1002424</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2779,22 +2779,22 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>969</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11459</t>
+          <t>10791</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,67 +2814,67 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4896</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9084</t>
+          <t>9351</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>9070</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>4767</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>16448</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
           <t>0,21%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0,09%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>8683</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>15925</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -2892,32 +2892,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17773</t>
+          <t>19079</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10325</t>
+          <t>11896</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29134</t>
+          <t>30472</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2927,32 +2927,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27318</t>
+          <t>29177</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>18078</t>
+          <t>21258</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>37531</t>
+          <t>39931</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2962,32 +2962,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>45091</t>
+          <t>48256</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>32306</t>
+          <t>36726</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>62012</t>
+          <t>64521</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>193585</t>
+          <t>209411</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>131781</t>
+          <t>180721</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>235681</t>
+          <t>242402</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3040,32 +3040,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>227183</t>
+          <t>254598</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>167205</t>
+          <t>230155</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>262759</t>
+          <t>283225</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>420768</t>
+          <t>464010</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>331478</t>
+          <t>423182</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>481074</t>
+          <t>504590</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3118,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1604683</t>
+          <t>1509625</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1519128</t>
+          <t>1462312</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1758346</t>
+          <t>1556214</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>73,66%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>71,35%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3153,32 +3153,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1728472</t>
+          <t>1642192</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>1660076</t>
+          <t>1606127</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1856918</t>
+          <t>1679975</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>74,84%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>76,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3188,32 +3188,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>3333154</t>
+          <t>3151817</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>3211721</t>
+          <t>3095247</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>3525147</t>
+          <t>3210813</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>81,68%</t>
+          <t>75,66%</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>273918</t>
+          <t>307138</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>188073</t>
+          <t>272857</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>326039</t>
+          <t>347324</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3266,32 +3266,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>234120</t>
+          <t>263514</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>173355</t>
+          <t>236927</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>271346</t>
+          <t>291657</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3301,32 +3301,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>508038</t>
+          <t>570652</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>401135</t>
+          <t>519616</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>578583</t>
+          <t>618915</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2093954</t>
+          <t>2049427</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2093954</t>
+          <t>2049427</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2093954</t>
+          <t>2049427</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2221781</t>
+          <t>2194377</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2221781</t>
+          <t>2194377</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2221781</t>
+          <t>2194377</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4315734</t>
+          <t>4243804</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4315734</t>
+          <t>4243804</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4315734</t>
+          <t>4243804</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
